--- a/biology/Zoologie/Cincloramphus/Cincloramphus.xlsx
+++ b/biology/Zoologie/Cincloramphus/Cincloramphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cincloramphus est un genre de passereaux de la famille des Locustellidae. Il regroupe onze espèces de mégalures.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre vit à l'état naturel en Australie[2],[3],[4], en Mélanésie[4],[5],[6],[7],[8],[9],[10],[11],[12], en Indonésie[4],[13] et aux Philippines[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre vit à l'état naturel en Australie en Mélanésie en Indonésie, et aux Philippines.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste alphabétique des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification de référence du Congrès ornithologique international  (version 8.2, 2018) :
 Cincloramphus bivittatus (Bonaparte, 1850) — Fauvette du Timor, Mégalure de Timor
 Cincloramphus cruralis (Vigors &amp; Horsfield, 1827) — Cincloramphe brun, Fauvette-alouette brunâtre, Mégalure brune
 Cincloramphus grosvenori (Gilliard, 1960) — Fauvette à masque, Mégalure de Gilliard
@@ -606,9 +622,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été créé par la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1] à la suite de la réorganisation de la famille des Locustellidae. Les espèces correspondantes faisaient auparavant partie des genres Megalurus, Megalurulus et Buettikoferella.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été créé par la classification de référence du Congrès ornithologique international  (version 8.2, 2018) à la suite de la réorganisation de la famille des Locustellidae. Les espèces correspondantes faisaient auparavant partie des genres Megalurus, Megalurulus et Buettikoferella.
 </t>
         </is>
       </c>
